--- a/data/pca/factorExposure/factorExposure_2009-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01644107389829679</v>
+        <v>0.01649894227639447</v>
       </c>
       <c r="C2">
-        <v>-0.001359098296029339</v>
+        <v>-0.001047821712106758</v>
       </c>
       <c r="D2">
-        <v>0.00822640916601345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009073582887318521</v>
+      </c>
+      <c r="E2">
+        <v>0.001423213677244406</v>
+      </c>
+      <c r="F2">
+        <v>0.01216378947712008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09045332112376643</v>
+        <v>0.09217302405196338</v>
       </c>
       <c r="C4">
-        <v>-0.01957599282901877</v>
+        <v>-0.01473010494314366</v>
       </c>
       <c r="D4">
-        <v>0.07619931249893708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08158291877385485</v>
+      </c>
+      <c r="E4">
+        <v>0.02624057893623078</v>
+      </c>
+      <c r="F4">
+        <v>-0.03188850640922257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.531697094057155e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-2.682459447774531e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-2.437124009581145e-05</v>
+      </c>
+      <c r="E5">
+        <v>-1.558436555724565e-05</v>
+      </c>
+      <c r="F5">
+        <v>5.63507289137878e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1526965835994138</v>
+        <v>0.1613491318832629</v>
       </c>
       <c r="C6">
-        <v>-0.02916757294910376</v>
+        <v>-0.02851894797447107</v>
       </c>
       <c r="D6">
-        <v>-0.03700865484488994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02676937756535734</v>
+      </c>
+      <c r="E6">
+        <v>0.009359014941394329</v>
+      </c>
+      <c r="F6">
+        <v>-0.04109508647754526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05987413661788574</v>
+        <v>0.06186912229885911</v>
       </c>
       <c r="C7">
-        <v>-0.001654746357831426</v>
+        <v>0.001636068363518621</v>
       </c>
       <c r="D7">
-        <v>0.04842926263123644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05289058644344621</v>
+      </c>
+      <c r="E7">
+        <v>0.01266048928105032</v>
+      </c>
+      <c r="F7">
+        <v>-0.04950126574683818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06219475522012354</v>
+        <v>0.05758712308026843</v>
       </c>
       <c r="C8">
-        <v>0.01041772534886612</v>
+        <v>0.01235399693709221</v>
       </c>
       <c r="D8">
-        <v>0.02645937642111683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03072012298387619</v>
+      </c>
+      <c r="E8">
+        <v>0.01749451333912494</v>
+      </c>
+      <c r="F8">
+        <v>0.02573681158656239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06992580874353445</v>
+        <v>0.07147348627943852</v>
       </c>
       <c r="C9">
-        <v>-0.01581237458636042</v>
+        <v>-0.01044367121229783</v>
       </c>
       <c r="D9">
-        <v>0.07702159774994213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08486963655540405</v>
+      </c>
+      <c r="E9">
+        <v>0.02354333914126543</v>
+      </c>
+      <c r="F9">
+        <v>-0.04817840392072437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08484036068005187</v>
+        <v>0.08728442141796809</v>
       </c>
       <c r="C10">
-        <v>-0.0146462620103925</v>
+        <v>-0.02146004675056281</v>
       </c>
       <c r="D10">
-        <v>-0.1666411006293948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1599886330408465</v>
+      </c>
+      <c r="E10">
+        <v>-0.03293863957488308</v>
+      </c>
+      <c r="F10">
+        <v>0.05880729885720432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09084022821078321</v>
+        <v>0.08769796723202215</v>
       </c>
       <c r="C11">
-        <v>-0.01689457717915688</v>
+        <v>-0.01136743418349073</v>
       </c>
       <c r="D11">
-        <v>0.1105210451534655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117781786837745</v>
+      </c>
+      <c r="E11">
+        <v>0.04799825779221457</v>
+      </c>
+      <c r="F11">
+        <v>-0.02428218644778792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09603612735848964</v>
+        <v>0.09023454323385219</v>
       </c>
       <c r="C12">
-        <v>-0.01497349494602659</v>
+        <v>-0.008585780753632985</v>
       </c>
       <c r="D12">
-        <v>0.1170993148173212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1323592000292364</v>
+      </c>
+      <c r="E12">
+        <v>0.04748427056361389</v>
+      </c>
+      <c r="F12">
+        <v>-0.03140282278783509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04447537819889226</v>
+        <v>0.0435972143045732</v>
       </c>
       <c r="C13">
-        <v>-0.00650126292828546</v>
+        <v>-0.002581534422711987</v>
       </c>
       <c r="D13">
-        <v>0.04438712892547327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05379633551899332</v>
+      </c>
+      <c r="E13">
+        <v>-0.0002028405511885637</v>
+      </c>
+      <c r="F13">
+        <v>-0.004462940934149129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01919734994846902</v>
+        <v>0.0235649030088684</v>
       </c>
       <c r="C14">
-        <v>-0.01506642146460721</v>
+        <v>-0.01370819198008679</v>
       </c>
       <c r="D14">
-        <v>0.02862033962369792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03218964349151526</v>
+      </c>
+      <c r="E14">
+        <v>0.0178224176604968</v>
+      </c>
+      <c r="F14">
+        <v>-0.01239971372202646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0336987505763852</v>
+        <v>0.03363638294223288</v>
       </c>
       <c r="C15">
-        <v>-0.007451039092387144</v>
+        <v>-0.005284237435425</v>
       </c>
       <c r="D15">
-        <v>0.04322829441177882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04666588973188445</v>
+      </c>
+      <c r="E15">
+        <v>0.007820658889409329</v>
+      </c>
+      <c r="F15">
+        <v>-0.02964692463304496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07453469276136873</v>
+        <v>0.07249187274268237</v>
       </c>
       <c r="C16">
-        <v>-0.007375847547698204</v>
+        <v>-0.001533164843101662</v>
       </c>
       <c r="D16">
-        <v>0.1149935472244542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284381516570604</v>
+      </c>
+      <c r="E16">
+        <v>0.06187060373166874</v>
+      </c>
+      <c r="F16">
+        <v>-0.0274000985879016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0004706028125172028</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003786854922760539</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002379249909413837</v>
+      </c>
+      <c r="E17">
+        <v>0.001497376681925566</v>
+      </c>
+      <c r="F17">
+        <v>0.002624322240671206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02029531461221371</v>
+        <v>0.04023824027261665</v>
       </c>
       <c r="C18">
-        <v>0.002687420963549536</v>
+        <v>0.002642482984758183</v>
       </c>
       <c r="D18">
-        <v>0.02291470156192436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01563222636276671</v>
+      </c>
+      <c r="E18">
+        <v>-0.006553944707269326</v>
+      </c>
+      <c r="F18">
+        <v>0.009912217547609443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0630313033013943</v>
+        <v>0.06223214661027986</v>
       </c>
       <c r="C20">
-        <v>-0.005202465999702558</v>
+        <v>-0.0009653435007839197</v>
       </c>
       <c r="D20">
-        <v>0.06938679886020024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07884376963830939</v>
+      </c>
+      <c r="E20">
+        <v>0.05748512319633421</v>
+      </c>
+      <c r="F20">
+        <v>-0.02988463455416324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03803197622035161</v>
+        <v>0.04044587706371244</v>
       </c>
       <c r="C21">
-        <v>-0.009315253992227384</v>
+        <v>-0.00628061973449609</v>
       </c>
       <c r="D21">
-        <v>0.034153011559414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03668953853055418</v>
+      </c>
+      <c r="E21">
+        <v>-0.002142960268730725</v>
+      </c>
+      <c r="F21">
+        <v>0.02579918240731374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04137210083832396</v>
+        <v>0.04430147197251759</v>
       </c>
       <c r="C22">
-        <v>-0.001991433906613837</v>
+        <v>-0.001020662523995748</v>
       </c>
       <c r="D22">
-        <v>-0.0004057819297380266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007813757118948637</v>
+      </c>
+      <c r="E22">
+        <v>0.03852288742243326</v>
+      </c>
+      <c r="F22">
+        <v>0.0486741044279301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04133473659792681</v>
+        <v>0.0442772679593286</v>
       </c>
       <c r="C23">
-        <v>-0.001980966319296988</v>
+        <v>-0.001011545281424834</v>
       </c>
       <c r="D23">
-        <v>-0.0003818619951835271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007827903731001781</v>
+      </c>
+      <c r="E23">
+        <v>0.03870554707901531</v>
+      </c>
+      <c r="F23">
+        <v>0.04864577620963519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08200849807788198</v>
+        <v>0.07841791147349095</v>
       </c>
       <c r="C24">
-        <v>-0.008035306898102147</v>
+        <v>-0.002309645467746876</v>
       </c>
       <c r="D24">
-        <v>0.1155878517334123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205513946617768</v>
+      </c>
+      <c r="E24">
+        <v>0.04965312369590102</v>
+      </c>
+      <c r="F24">
+        <v>-0.02973596868420152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08690736761087045</v>
+        <v>0.08344236600568884</v>
       </c>
       <c r="C25">
-        <v>-0.01025640735438802</v>
+        <v>-0.005022063617481361</v>
       </c>
       <c r="D25">
-        <v>0.1019398777920113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098395848607345</v>
+      </c>
+      <c r="E25">
+        <v>0.03297903461723691</v>
+      </c>
+      <c r="F25">
+        <v>-0.0272161382661808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05766197235226658</v>
+        <v>0.0597797275484603</v>
       </c>
       <c r="C26">
-        <v>-0.01786862220139896</v>
+        <v>-0.01446909886430713</v>
       </c>
       <c r="D26">
-        <v>0.03141259841768788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04363758307894038</v>
+      </c>
+      <c r="E26">
+        <v>0.02945298830024766</v>
+      </c>
+      <c r="F26">
+        <v>0.007989167359367152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1341061292848406</v>
+        <v>0.1422818849387977</v>
       </c>
       <c r="C28">
-        <v>-0.01346453322107176</v>
+        <v>-0.0232636670702254</v>
       </c>
       <c r="D28">
-        <v>-0.2666454296843509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2605110232825747</v>
+      </c>
+      <c r="E28">
+        <v>-0.06884129743689914</v>
+      </c>
+      <c r="F28">
+        <v>-0.003964373202442387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02541333842623028</v>
+        <v>0.02846549870410137</v>
       </c>
       <c r="C29">
-        <v>-0.009639929802321144</v>
+        <v>-0.008838505445038098</v>
       </c>
       <c r="D29">
-        <v>0.02776430492092698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03016287602933132</v>
+      </c>
+      <c r="E29">
+        <v>0.01279680840357349</v>
+      </c>
+      <c r="F29">
+        <v>0.01339203492368183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06155078024036102</v>
+        <v>0.05875344839405845</v>
       </c>
       <c r="C30">
-        <v>-0.008467549546511728</v>
+        <v>-0.002916958781924139</v>
       </c>
       <c r="D30">
-        <v>0.0747437614885576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08701093247185547</v>
+      </c>
+      <c r="E30">
+        <v>0.01378174558168045</v>
+      </c>
+      <c r="F30">
+        <v>-0.07986112943775439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0507128337290583</v>
+        <v>0.05157259027879351</v>
       </c>
       <c r="C31">
-        <v>-0.01736041627446675</v>
+        <v>-0.01615901954932195</v>
       </c>
       <c r="D31">
-        <v>0.02140329683952208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02448744254451809</v>
+      </c>
+      <c r="E31">
+        <v>0.02855968876581444</v>
+      </c>
+      <c r="F31">
+        <v>0.0001166155495403147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04808991653172739</v>
+        <v>0.05250212433386016</v>
       </c>
       <c r="C32">
-        <v>-0.002371371707480463</v>
+        <v>0.001383428763436994</v>
       </c>
       <c r="D32">
-        <v>0.02587196648406287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03414465307622117</v>
+      </c>
+      <c r="E32">
+        <v>0.0331537380636675</v>
+      </c>
+      <c r="F32">
+        <v>-0.00371783401254919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09035635362309752</v>
+        <v>0.08939531450006467</v>
       </c>
       <c r="C33">
-        <v>-0.01301392457262396</v>
+        <v>-0.007072221817693393</v>
       </c>
       <c r="D33">
-        <v>0.08783959386646462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1031642597412848</v>
+      </c>
+      <c r="E33">
+        <v>0.04653139124619102</v>
+      </c>
+      <c r="F33">
+        <v>-0.04355486748569776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06884201442658067</v>
+        <v>0.0673918688011332</v>
       </c>
       <c r="C34">
-        <v>-0.01546252573338005</v>
+        <v>-0.01052464620754113</v>
       </c>
       <c r="D34">
-        <v>0.09676390768016906</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.109378211983626</v>
+      </c>
+      <c r="E34">
+        <v>0.03586130768714772</v>
+      </c>
+      <c r="F34">
+        <v>-0.03485695672282955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02523396652290617</v>
+        <v>0.02667794590416606</v>
       </c>
       <c r="C35">
-        <v>-0.003663444352021551</v>
+        <v>-0.00307317472362657</v>
       </c>
       <c r="D35">
-        <v>0.008201071584874859</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01213815617870453</v>
+      </c>
+      <c r="E35">
+        <v>0.01276465325410306</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001847902180095242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02502082971385318</v>
+        <v>0.02790315362883108</v>
       </c>
       <c r="C36">
-        <v>-0.008033712318855846</v>
+        <v>-0.00692414435962023</v>
       </c>
       <c r="D36">
-        <v>0.03888172197181808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03893426060199674</v>
+      </c>
+      <c r="E36">
+        <v>0.01681412222921805</v>
+      </c>
+      <c r="F36">
+        <v>-0.01419902911805213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001377484381255635</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008341244194423845</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002840110815100912</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001343690565358123</v>
+      </c>
+      <c r="F37">
+        <v>0.001607774123543787</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1125768895170976</v>
+        <v>0.1011691575965819</v>
       </c>
       <c r="C39">
-        <v>-0.02304584782574802</v>
+        <v>-0.0162544243352265</v>
       </c>
       <c r="D39">
-        <v>0.1480617361084038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1509928339623634</v>
+      </c>
+      <c r="E39">
+        <v>0.0594652613531307</v>
+      </c>
+      <c r="F39">
+        <v>-0.02174471695392121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03806733067234826</v>
+        <v>0.04348728326599063</v>
       </c>
       <c r="C40">
-        <v>-0.009288395307021354</v>
+        <v>-0.00763973095675196</v>
       </c>
       <c r="D40">
-        <v>0.02400528115435624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03300580451140392</v>
+      </c>
+      <c r="E40">
+        <v>0.002386032728637952</v>
+      </c>
+      <c r="F40">
+        <v>0.0168012770498437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02491182294837576</v>
+        <v>0.02713682055867869</v>
       </c>
       <c r="C41">
-        <v>-0.00732857506781993</v>
+        <v>-0.00679662906242898</v>
       </c>
       <c r="D41">
-        <v>0.00931606548990358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01107454394556055</v>
+      </c>
+      <c r="E41">
+        <v>0.01192210522740391</v>
+      </c>
+      <c r="F41">
+        <v>0.007597274819431875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04215686969544145</v>
+        <v>0.04004647905983146</v>
       </c>
       <c r="C43">
-        <v>-0.008338734191106869</v>
+        <v>-0.007630446225560549</v>
       </c>
       <c r="D43">
-        <v>0.01800393699170855</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01948660151359121</v>
+      </c>
+      <c r="E43">
+        <v>0.02559719018910898</v>
+      </c>
+      <c r="F43">
+        <v>0.01600400655818047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06954409810423859</v>
+        <v>0.07841583399291986</v>
       </c>
       <c r="C44">
-        <v>-0.0242848893792447</v>
+        <v>-0.01965505783884666</v>
       </c>
       <c r="D44">
-        <v>0.0971727136721699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0964032906843979</v>
+      </c>
+      <c r="E44">
+        <v>0.06147146577326635</v>
+      </c>
+      <c r="F44">
+        <v>-0.1697415232921056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02192912472911669</v>
+        <v>0.02492102569567096</v>
       </c>
       <c r="C46">
-        <v>-0.004557226214814616</v>
+        <v>-0.003766402758655798</v>
       </c>
       <c r="D46">
-        <v>0.009742313075698273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01285630104994095</v>
+      </c>
+      <c r="E46">
+        <v>0.02741383492852561</v>
+      </c>
+      <c r="F46">
+        <v>0.005839398208190646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05222742439340217</v>
+        <v>0.05166344040010078</v>
       </c>
       <c r="C47">
-        <v>-0.005055897430542259</v>
+        <v>-0.004360711001202795</v>
       </c>
       <c r="D47">
-        <v>0.006779616743383061</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01090747013871175</v>
+      </c>
+      <c r="E47">
+        <v>0.02267741410409668</v>
+      </c>
+      <c r="F47">
+        <v>0.03209231891766346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04822377952812183</v>
+        <v>0.05089596380513002</v>
       </c>
       <c r="C48">
-        <v>-0.005029306462298984</v>
+        <v>-0.002292730739536425</v>
       </c>
       <c r="D48">
-        <v>0.04679108398758565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05021343044834364</v>
+      </c>
+      <c r="E48">
+        <v>-0.00451408974221543</v>
+      </c>
+      <c r="F48">
+        <v>-0.01252902340065814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1998326043545452</v>
+        <v>0.2002495619192944</v>
       </c>
       <c r="C49">
-        <v>-0.02204819049846878</v>
+        <v>-0.02069477257355891</v>
       </c>
       <c r="D49">
-        <v>-0.01237830321924728</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004546988721270151</v>
+      </c>
+      <c r="E49">
+        <v>0.0332144260602857</v>
+      </c>
+      <c r="F49">
+        <v>-0.04945990148564493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04981801417365924</v>
+        <v>0.05178361453732745</v>
       </c>
       <c r="C50">
-        <v>-0.01321643376384162</v>
+        <v>-0.01182107838912016</v>
       </c>
       <c r="D50">
-        <v>0.02045733680505206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02301353675640429</v>
+      </c>
+      <c r="E50">
+        <v>0.02950973021756634</v>
+      </c>
+      <c r="F50">
+        <v>-0.01013390993026993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.155852360362759</v>
+        <v>0.1492118181305707</v>
       </c>
       <c r="C52">
-        <v>-0.0208194988077456</v>
+        <v>-0.01911730015296371</v>
       </c>
       <c r="D52">
-        <v>0.04259973411885406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04186300610143743</v>
+      </c>
+      <c r="E52">
+        <v>0.02235039951049053</v>
+      </c>
+      <c r="F52">
+        <v>-0.04242545647856768</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1748093479309226</v>
+        <v>0.169421615579279</v>
       </c>
       <c r="C53">
-        <v>-0.02147878975561784</v>
+        <v>-0.02199874049556469</v>
       </c>
       <c r="D53">
-        <v>0.005920473096562334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005265491638981728</v>
+      </c>
+      <c r="E53">
+        <v>0.02982997851876629</v>
+      </c>
+      <c r="F53">
+        <v>-0.07519465125216704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01687933621723412</v>
+        <v>0.0195309922698361</v>
       </c>
       <c r="C54">
-        <v>-0.012275092101327</v>
+        <v>-0.01093289256285069</v>
       </c>
       <c r="D54">
-        <v>0.03001773247499225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03250639795343172</v>
+      </c>
+      <c r="E54">
+        <v>0.0206535584972307</v>
+      </c>
+      <c r="F54">
+        <v>0.002477343156749337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1175639896766219</v>
+        <v>0.1159314785866642</v>
       </c>
       <c r="C55">
-        <v>-0.01903931981174629</v>
+        <v>-0.01910565058894522</v>
       </c>
       <c r="D55">
-        <v>0.005297376989207665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007920755374377104</v>
+      </c>
+      <c r="E55">
+        <v>0.02537987485785122</v>
+      </c>
+      <c r="F55">
+        <v>-0.04670357164496698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1812054709812441</v>
+        <v>0.1759126239602663</v>
       </c>
       <c r="C56">
-        <v>-0.01940383977374719</v>
+        <v>-0.02006509075750412</v>
       </c>
       <c r="D56">
-        <v>-0.005073805530762338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003451544586811221</v>
+      </c>
+      <c r="E56">
+        <v>0.03211178477287964</v>
+      </c>
+      <c r="F56">
+        <v>-0.0552081866234067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04937230894313805</v>
+        <v>0.04686978470494354</v>
       </c>
       <c r="C58">
-        <v>-0.005536597577515826</v>
+        <v>-0.0003819738642342976</v>
       </c>
       <c r="D58">
-        <v>0.06424160767163198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07602043049523928</v>
+      </c>
+      <c r="E58">
+        <v>0.03707528183149622</v>
+      </c>
+      <c r="F58">
+        <v>0.03696623505847901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1617758160596469</v>
+        <v>0.1671926276712803</v>
       </c>
       <c r="C59">
-        <v>-0.01524358915115743</v>
+        <v>-0.02356590205291298</v>
       </c>
       <c r="D59">
-        <v>-0.224129022575718</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2181489165783113</v>
+      </c>
+      <c r="E59">
+        <v>-0.04958624182422476</v>
+      </c>
+      <c r="F59">
+        <v>0.03930600557771156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2381603439098499</v>
+        <v>0.2302198319705027</v>
       </c>
       <c r="C60">
-        <v>-0.003066851480820143</v>
+        <v>-0.0003979957971386385</v>
       </c>
       <c r="D60">
-        <v>0.03717705667865833</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03917220400672293</v>
+      </c>
+      <c r="E60">
+        <v>0.006549385403668618</v>
+      </c>
+      <c r="F60">
+        <v>-0.006407738174454896</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08383734428484356</v>
+        <v>0.07713628202653948</v>
       </c>
       <c r="C61">
-        <v>-0.01727597819982164</v>
+        <v>-0.01156213003129515</v>
       </c>
       <c r="D61">
-        <v>0.1081396896985687</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155280984008576</v>
+      </c>
+      <c r="E61">
+        <v>0.03775649536117603</v>
+      </c>
+      <c r="F61">
+        <v>-0.008626178300454779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1726996682543086</v>
+        <v>0.1693644687691122</v>
       </c>
       <c r="C62">
-        <v>-0.02337533341811868</v>
+        <v>-0.02287298052138523</v>
       </c>
       <c r="D62">
-        <v>3.011420593063433e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005776096716129536</v>
+      </c>
+      <c r="E62">
+        <v>0.03409654620971884</v>
+      </c>
+      <c r="F62">
+        <v>-0.04167593230772858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04155054660788304</v>
+        <v>0.04564142341896307</v>
       </c>
       <c r="C63">
-        <v>-0.005483754519495323</v>
+        <v>-0.001741318352487728</v>
       </c>
       <c r="D63">
-        <v>0.04859306469500134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06005709687731322</v>
+      </c>
+      <c r="E63">
+        <v>0.02390680528347904</v>
+      </c>
+      <c r="F63">
+        <v>-0.0006988113656740165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1135487548020164</v>
+        <v>0.1109518727599821</v>
       </c>
       <c r="C64">
-        <v>-0.01586191083812638</v>
+        <v>-0.01286810772094383</v>
       </c>
       <c r="D64">
-        <v>0.03232548261961581</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04257602830012532</v>
+      </c>
+      <c r="E64">
+        <v>0.02401040452611597</v>
+      </c>
+      <c r="F64">
+        <v>-0.0260928798310447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1438634285071287</v>
+        <v>0.15168659186044</v>
       </c>
       <c r="C65">
-        <v>-0.03518038507408932</v>
+        <v>-0.0356809612491498</v>
       </c>
       <c r="D65">
-        <v>-0.05919941922890439</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04625771567039356</v>
+      </c>
+      <c r="E65">
+        <v>0.006613101229546196</v>
+      </c>
+      <c r="F65">
+        <v>-0.03768115396945914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1357294678298308</v>
+        <v>0.1218182739984758</v>
       </c>
       <c r="C66">
-        <v>-0.0215547589612651</v>
+        <v>-0.01477134068845317</v>
       </c>
       <c r="D66">
-        <v>0.1291703768515617</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1394179340439614</v>
+      </c>
+      <c r="E66">
+        <v>0.06472537185434898</v>
+      </c>
+      <c r="F66">
+        <v>-0.02797685023949693</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06297489829354561</v>
+        <v>0.05575654336375508</v>
       </c>
       <c r="C67">
-        <v>-0.005918731895977854</v>
+        <v>-0.003478849580174707</v>
       </c>
       <c r="D67">
-        <v>0.05372779476117213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05755815547886634</v>
+      </c>
+      <c r="E67">
+        <v>0.01878158581354888</v>
+      </c>
+      <c r="F67">
+        <v>0.03328781731349269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070043318521606</v>
+        <v>0.1168798802643209</v>
       </c>
       <c r="C68">
-        <v>-0.02353878126572173</v>
+        <v>-0.03397235650972315</v>
       </c>
       <c r="D68">
-        <v>-0.2641793206554679</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609740306594299</v>
+      </c>
+      <c r="E68">
+        <v>-0.08899872317821884</v>
+      </c>
+      <c r="F68">
+        <v>0.0009471506113044257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04011683775730174</v>
+        <v>0.03865259889871662</v>
       </c>
       <c r="C69">
-        <v>-0.002484297540440765</v>
+        <v>-0.001421000139105921</v>
       </c>
       <c r="D69">
-        <v>0.006579625924417572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008424289469379346</v>
+      </c>
+      <c r="E69">
+        <v>0.02428678246689658</v>
+      </c>
+      <c r="F69">
+        <v>0.0001187329709776105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06606551340256958</v>
+        <v>0.06717945916034918</v>
       </c>
       <c r="C70">
-        <v>0.02408049310106939</v>
+        <v>0.02668092655532574</v>
       </c>
       <c r="D70">
-        <v>0.01706100800404993</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02584742610583158</v>
+      </c>
+      <c r="E70">
+        <v>-0.03003411654839616</v>
+      </c>
+      <c r="F70">
+        <v>0.1804811504539209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1261286635417748</v>
+        <v>0.1368623806610926</v>
       </c>
       <c r="C71">
-        <v>-0.02808982683328419</v>
+        <v>-0.03861265013815514</v>
       </c>
       <c r="D71">
-        <v>-0.2809873753244599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2709029435914597</v>
+      </c>
+      <c r="E71">
+        <v>-0.09826590082131229</v>
+      </c>
+      <c r="F71">
+        <v>-0.005042675817943309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1377311135273732</v>
+        <v>0.1446655414896846</v>
       </c>
       <c r="C72">
-        <v>-0.02815665947122332</v>
+        <v>-0.02861492764785281</v>
       </c>
       <c r="D72">
-        <v>0.001371056173490188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004830874915451621</v>
+      </c>
+      <c r="E72">
+        <v>0.03818495389857871</v>
+      </c>
+      <c r="F72">
+        <v>-0.02780759601917291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2048050754310937</v>
+        <v>0.2038693197173709</v>
       </c>
       <c r="C73">
-        <v>-0.01722030239062577</v>
+        <v>-0.01381774446093871</v>
       </c>
       <c r="D73">
-        <v>0.008405354526012611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0188022063991947</v>
+      </c>
+      <c r="E73">
+        <v>0.06711733838094819</v>
+      </c>
+      <c r="F73">
+        <v>-0.04375646435988341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09314315359717174</v>
+        <v>0.09406851054672957</v>
       </c>
       <c r="C74">
-        <v>-0.01474157574221701</v>
+        <v>-0.01412609247583224</v>
       </c>
       <c r="D74">
-        <v>0.01609917849407035</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01686015582441853</v>
+      </c>
+      <c r="E74">
+        <v>0.04380969655209736</v>
+      </c>
+      <c r="F74">
+        <v>-0.05266047888451487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342587227809499</v>
+        <v>0.1261749713529682</v>
       </c>
       <c r="C75">
-        <v>-0.03134278211870715</v>
+        <v>-0.02986711416580854</v>
       </c>
       <c r="D75">
-        <v>0.02419069553448206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02902349731085417</v>
+      </c>
+      <c r="E75">
+        <v>0.05678457977192657</v>
+      </c>
+      <c r="F75">
+        <v>-0.02189220147353925</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08241050904712545</v>
+        <v>0.09059672507758387</v>
       </c>
       <c r="C77">
-        <v>-0.01464812675103132</v>
+        <v>-0.008798991444468326</v>
       </c>
       <c r="D77">
-        <v>0.1060046722311786</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146108660020878</v>
+      </c>
+      <c r="E77">
+        <v>0.04536749558245807</v>
+      </c>
+      <c r="F77">
+        <v>-0.03447482598088674</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09876549016292342</v>
+        <v>0.1007268782864284</v>
       </c>
       <c r="C78">
-        <v>-0.0436905127669913</v>
+        <v>-0.0392109103105509</v>
       </c>
       <c r="D78">
-        <v>0.1109235930883696</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1104417310460836</v>
+      </c>
+      <c r="E78">
+        <v>0.07548824116817554</v>
+      </c>
+      <c r="F78">
+        <v>-0.05279674369365993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1655604783730757</v>
+        <v>0.163157232292584</v>
       </c>
       <c r="C79">
-        <v>-0.02593980731504091</v>
+        <v>-0.02507674867150785</v>
       </c>
       <c r="D79">
-        <v>0.007086477537111426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01211973718114482</v>
+      </c>
+      <c r="E79">
+        <v>0.04384978349613492</v>
+      </c>
+      <c r="F79">
+        <v>-0.01305367853975742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08087949967137864</v>
+        <v>0.07950525147918047</v>
       </c>
       <c r="C80">
-        <v>-0.001847990417965325</v>
+        <v>0.0003622044528837108</v>
       </c>
       <c r="D80">
-        <v>0.05526654443050193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05347336136349827</v>
+      </c>
+      <c r="E80">
+        <v>0.032586260465742</v>
+      </c>
+      <c r="F80">
+        <v>0.02531463800973033</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204933191044732</v>
+        <v>0.11661448607403</v>
       </c>
       <c r="C81">
-        <v>-0.03336362670077265</v>
+        <v>-0.03326708245843802</v>
       </c>
       <c r="D81">
-        <v>0.01200646148440339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01308616112600673</v>
+      </c>
+      <c r="E81">
+        <v>0.05380064521590289</v>
+      </c>
+      <c r="F81">
+        <v>-0.01859794930039027</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1664836242173507</v>
+        <v>0.1656477603558666</v>
       </c>
       <c r="C82">
-        <v>-0.02661070456658533</v>
+        <v>-0.02751458554503303</v>
       </c>
       <c r="D82">
-        <v>0.006885590538193558</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002535492578793606</v>
+      </c>
+      <c r="E82">
+        <v>0.02822111621270916</v>
+      </c>
+      <c r="F82">
+        <v>-0.0824179319181767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06263001320529485</v>
+        <v>0.05738458734215549</v>
       </c>
       <c r="C83">
-        <v>-0.005944921536448031</v>
+        <v>-0.003458090840307403</v>
       </c>
       <c r="D83">
-        <v>0.04285212770158201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04728772020932183</v>
+      </c>
+      <c r="E83">
+        <v>0.001145117907237763</v>
+      </c>
+      <c r="F83">
+        <v>0.03575222445680622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06220814912735205</v>
+        <v>0.05694700811136333</v>
       </c>
       <c r="C84">
-        <v>-0.01390639116801716</v>
+        <v>-0.01116949675001159</v>
       </c>
       <c r="D84">
-        <v>0.06997495718400967</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0720494072156307</v>
+      </c>
+      <c r="E84">
+        <v>0.01415383068900957</v>
+      </c>
+      <c r="F84">
+        <v>-0.01598454740767425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.139424416443425</v>
+        <v>0.1347305802330795</v>
       </c>
       <c r="C85">
-        <v>-0.0301697518606977</v>
+        <v>-0.02992636010785931</v>
       </c>
       <c r="D85">
-        <v>0.007981452543532956</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009538215878556668</v>
+      </c>
+      <c r="E85">
+        <v>0.03637558065923217</v>
+      </c>
+      <c r="F85">
+        <v>-0.04800313414412003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012296252460116</v>
+        <v>0.09376858982673981</v>
       </c>
       <c r="C86">
-        <v>0.002487910644858386</v>
+        <v>0.005240823783404768</v>
       </c>
       <c r="D86">
-        <v>0.01176288861455534</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05314371067521229</v>
+      </c>
+      <c r="E86">
+        <v>0.2264263275310419</v>
+      </c>
+      <c r="F86">
+        <v>0.8974665917839674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09661914814474645</v>
+        <v>0.09281221842997218</v>
       </c>
       <c r="C87">
-        <v>-0.02823224655751819</v>
+        <v>-0.0197707960682329</v>
       </c>
       <c r="D87">
-        <v>0.07358076062984152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09510071347250026</v>
+      </c>
+      <c r="E87">
+        <v>-0.05236099644115129</v>
+      </c>
+      <c r="F87">
+        <v>-0.05088835023308151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06189300006706409</v>
+        <v>0.0607852281564181</v>
       </c>
       <c r="C88">
-        <v>-0.005354535424641755</v>
+        <v>-0.002641229828452059</v>
       </c>
       <c r="D88">
-        <v>0.0516853439722185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05021705303974572</v>
+      </c>
+      <c r="E88">
+        <v>0.02406715595607935</v>
+      </c>
+      <c r="F88">
+        <v>-0.0142778779881846</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1184080686531409</v>
+        <v>0.1268491437929866</v>
       </c>
       <c r="C89">
-        <v>-0.004913188941314909</v>
+        <v>-0.01394829596565607</v>
       </c>
       <c r="D89">
-        <v>-0.2461979535237203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2437530348470414</v>
+      </c>
+      <c r="E89">
+        <v>-0.09260920637870607</v>
+      </c>
+      <c r="F89">
+        <v>0.008606835164696326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1388658117025743</v>
+        <v>0.1522974493522283</v>
       </c>
       <c r="C90">
-        <v>-0.02426580536583514</v>
+        <v>-0.03540888371177168</v>
       </c>
       <c r="D90">
-        <v>-0.2650204653082243</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2679705185613965</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138865383268618</v>
+      </c>
+      <c r="F90">
+        <v>0.01037469946221855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1216801750558999</v>
+        <v>0.1205074935798054</v>
       </c>
       <c r="C91">
-        <v>-0.02100136652555882</v>
+        <v>-0.02155309090973081</v>
       </c>
       <c r="D91">
-        <v>-0.01858158902019215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01694408899968414</v>
+      </c>
+      <c r="E91">
+        <v>0.053708017209195</v>
+      </c>
+      <c r="F91">
+        <v>0.001420071551223048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1397594972434918</v>
+        <v>0.1460690926362679</v>
       </c>
       <c r="C92">
-        <v>-0.01525865799002019</v>
+        <v>-0.02683251393121443</v>
       </c>
       <c r="D92">
-        <v>-0.2969075653950825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2944897073078277</v>
+      </c>
+      <c r="E92">
+        <v>-0.1037788155542999</v>
+      </c>
+      <c r="F92">
+        <v>0.01941006847079863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1408599150469544</v>
+        <v>0.1529385358618714</v>
       </c>
       <c r="C93">
-        <v>-0.02047010296952425</v>
+        <v>-0.03038371954771307</v>
       </c>
       <c r="D93">
-        <v>-0.2666517303782233</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2640768318378231</v>
+      </c>
+      <c r="E93">
+        <v>-0.07634387911201579</v>
+      </c>
+      <c r="F93">
+        <v>-0.001280146581428501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1346795756260131</v>
+        <v>0.1268106457756022</v>
       </c>
       <c r="C94">
-        <v>-0.02798012205052552</v>
+        <v>-0.02602338466501343</v>
       </c>
       <c r="D94">
-        <v>0.03812731961908854</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03996148382211615</v>
+      </c>
+      <c r="E94">
+        <v>0.0568021816333078</v>
+      </c>
+      <c r="F94">
+        <v>-0.03294365878077612</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1248659850839268</v>
+        <v>0.1280611404406828</v>
       </c>
       <c r="C95">
-        <v>-0.009811225005545519</v>
+        <v>-0.0042282328751495</v>
       </c>
       <c r="D95">
-        <v>0.08789998554295181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09807180630476844</v>
+      </c>
+      <c r="E95">
+        <v>0.05484338200842376</v>
+      </c>
+      <c r="F95">
+        <v>-0.002163362053399281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1236476330300987</v>
+        <v>0.1188119070089032</v>
       </c>
       <c r="C96">
-        <v>0.9866545180080983</v>
+        <v>0.9860797899274296</v>
       </c>
       <c r="D96">
-        <v>-0.01614610868429494</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05184855058579999</v>
+      </c>
+      <c r="E96">
+        <v>0.05148816637796862</v>
+      </c>
+      <c r="F96">
+        <v>-0.04222281427869207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1950416983639338</v>
+        <v>0.1972211199802621</v>
       </c>
       <c r="C97">
-        <v>0.004010826102600904</v>
+        <v>0.004482390217150567</v>
       </c>
       <c r="D97">
-        <v>-0.01621763597262045</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02018699776370642</v>
+      </c>
+      <c r="E97">
+        <v>0.02591825317859215</v>
+      </c>
+      <c r="F97">
+        <v>0.1189094486730149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1986027894808912</v>
+        <v>0.2049124784291244</v>
       </c>
       <c r="C98">
-        <v>-0.01173309505014006</v>
+        <v>-0.008116382806511988</v>
       </c>
       <c r="D98">
-        <v>0.01156120359911514</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01627766303254526</v>
+      </c>
+      <c r="E98">
+        <v>-0.07490525132358572</v>
+      </c>
+      <c r="F98">
+        <v>0.09158221882111127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05548797749451409</v>
+        <v>0.05527980812076562</v>
       </c>
       <c r="C99">
-        <v>0.00187715499978673</v>
+        <v>0.003858217643604816</v>
       </c>
       <c r="D99">
-        <v>0.02909657945305896</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03863518766007096</v>
+      </c>
+      <c r="E99">
+        <v>0.02154387602109682</v>
+      </c>
+      <c r="F99">
+        <v>-0.003912970071345433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.144328629047616</v>
+        <v>0.1309618482289019</v>
       </c>
       <c r="C100">
-        <v>0.0377606178296682</v>
+        <v>0.05065820509454773</v>
       </c>
       <c r="D100">
-        <v>0.3974857513434009</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.354326418427842</v>
+      </c>
+      <c r="E100">
+        <v>-0.8843569096553765</v>
+      </c>
+      <c r="F100">
+        <v>0.1518204976231338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02542612585202934</v>
+        <v>0.02852177107585738</v>
       </c>
       <c r="C101">
-        <v>-0.009662065946189452</v>
+        <v>-0.00886812362370213</v>
       </c>
       <c r="D101">
-        <v>0.02738314516155702</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02979652842669375</v>
+      </c>
+      <c r="E101">
+        <v>0.01227193286882987</v>
+      </c>
+      <c r="F101">
+        <v>0.01474439020542507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
